--- a/biology/Botanique/Uvaria/Uvaria.xlsx
+++ b/biology/Botanique/Uvaria/Uvaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Uvaria est un genre de plantes de la famille des Annonaceae dans la classification phylogénétique. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (24 juillet 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (24 juillet 2017) :
 Uvaria boniana Finet &amp; Gagnepain
 Uvaria calamistrata Hance
 Uvaria grandiflora Roxburgh ex Hornemann
@@ -522,7 +536,7 @@
 Uvaria macrophylla Roxburgh
 Uvaria rufa Blume
 Uvaria tonkinensis Finet &amp; Gagnepain
-Selon Catalogue of Life                                   (24 juillet 2017)[3] :
+Selon Catalogue of Life                                   (24 juillet 2017) :
 Uvaria acuminata Oliv.
 Uvaria afzelii G. Elliot
 Uvaria alba Merr.
@@ -722,7 +736,7 @@
 Uvaria zippeliana Miq.
 Uvaria zippelii Korth.
 Uvaria zschokkei Elmer
-Selon NCBI  (24 juillet 2017)[4] :
+Selon NCBI  (24 juillet 2017) :
 Uvaria acuminata
 Uvaria afzelii
 Uvaria angolensis
@@ -792,7 +806,7 @@
 Uvaria welwitschii
 Uvaria wrayi
 Uvaria zeylanica
-Selon The Plant List            (24 juillet 2017)[5] :
+Selon The Plant List            (24 juillet 2017) :
 Uvaria acuminata Oliv.
 Uvaria afzelii G.F. Scott-Elliot
 Uvaria ambongoensis (Baill.) Diels
@@ -906,7 +920,7 @@
 Uvaria versicolor Pierre ex Engl. &amp; Diels
 Uvaria welwitschii (Hiern) Engl. &amp; Diels
 Uvaria wrayi (King) L.L.Zhou, Y.C.F.Su &amp; R.M.K.Saunders
-Selon Tropicos                                           (24 juillet 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 Uvaria acuminata Oliv.
 Uvaria aethiopica A. Rich.
 Uvaria afzelii Scott-Elliot
